--- a/非受控文档/需求规格说明阶段/优先级QFD打分表/项目发起人优先级打分表_yc..xlsx
+++ b/非受控文档/需求规格说明阶段/优先级QFD打分表/项目发起人优先级打分表_yc..xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813DF5F1-ED03-42CC-9313-FF27D66B31BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB03D99-CCAA-4418-B189-EAB5D533D326}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>相对权重</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,10 +120,6 @@
   </si>
   <si>
     <t>总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户权重0.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,14 +528,14 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.875" customWidth="1"/>
-    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -562,8 +558,8 @@
         <v>0.5</v>
       </c>
       <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
-        <v>22</v>
+      <c r="J1" s="2">
+        <v>1.5</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -620,7 +616,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="7">
-        <f>F3/42</f>
+        <f t="shared" ref="G3:G13" si="0">F3/42</f>
         <v>9.5238095238095233E-2</v>
       </c>
       <c r="H3" s="2">
@@ -631,8 +627,8 @@
         <v>0.12244897959183673</v>
       </c>
       <c r="J3" s="8">
-        <f>E3/(G3+I3)*0.6</f>
-        <v>0.2944711538461538</v>
+        <f>E3/(G3+I3)*1.5</f>
+        <v>0.73617788461538458</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -646,30 +642,30 @@
         <v>9</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D12" si="0">B4*2+C4</f>
+        <f t="shared" ref="D4:D12" si="1">B4*2+C4</f>
         <v>23</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" ref="E4:E13" si="1">D4/234</f>
+        <f t="shared" ref="E4:E13" si="2">D4/234</f>
         <v>9.8290598290598288E-2</v>
       </c>
       <c r="F4" s="2">
         <v>4</v>
       </c>
       <c r="G4" s="7">
-        <f>F4/42</f>
+        <f t="shared" si="0"/>
         <v>9.5238095238095233E-2</v>
       </c>
       <c r="H4" s="2">
         <v>6</v>
       </c>
       <c r="I4" s="7">
-        <f t="shared" ref="I4:I12" si="2">H4/49</f>
+        <f t="shared" ref="I4:I12" si="3">H4/49</f>
         <v>0.12244897959183673</v>
       </c>
       <c r="J4" s="8">
-        <f>E4/(G4+I4)*0.6</f>
-        <v>0.27091346153846152</v>
+        <f t="shared" ref="J4:J12" si="4">E4/(G4+I4)*1.5</f>
+        <v>0.67728365384615385</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -683,30 +679,30 @@
         <v>9</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10683760683760683</v>
       </c>
       <c r="F5" s="2">
         <v>4</v>
       </c>
       <c r="G5" s="7">
-        <f>F5/42</f>
+        <f t="shared" si="0"/>
         <v>9.5238095238095233E-2</v>
       </c>
       <c r="H5" s="2">
         <v>6</v>
       </c>
       <c r="I5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12244897959183673</v>
       </c>
       <c r="J5" s="8">
-        <f t="shared" ref="J4:J12" si="3">E5/(G5+I5)*0.6</f>
-        <v>0.2944711538461538</v>
+        <f t="shared" si="4"/>
+        <v>0.73617788461538458</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -720,30 +716,30 @@
         <v>9</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10683760683760683</v>
       </c>
       <c r="F6" s="2">
         <v>5</v>
       </c>
       <c r="G6" s="7">
-        <f>F6/42</f>
+        <f t="shared" si="0"/>
         <v>0.11904761904761904</v>
       </c>
       <c r="H6" s="2">
         <v>5</v>
       </c>
       <c r="I6" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.10204081632653061</v>
       </c>
       <c r="J6" s="8">
-        <f t="shared" si="3"/>
-        <v>0.28994082840236685</v>
+        <f t="shared" si="4"/>
+        <v>0.72485207100591709</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -757,30 +753,30 @@
         <v>9</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10683760683760683</v>
       </c>
       <c r="F7" s="2">
         <v>5</v>
       </c>
       <c r="G7" s="7">
-        <f>F7/42</f>
+        <f t="shared" si="0"/>
         <v>0.11904761904761904</v>
       </c>
       <c r="H7" s="2">
         <v>5</v>
       </c>
       <c r="I7" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.10204081632653061</v>
       </c>
       <c r="J7" s="8">
-        <f t="shared" si="3"/>
-        <v>0.28994082840236685</v>
+        <f t="shared" si="4"/>
+        <v>0.72485207100591709</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -794,30 +790,30 @@
         <v>9</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="E8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10683760683760683</v>
       </c>
       <c r="F8" s="2">
         <v>7</v>
       </c>
       <c r="G8" s="7">
-        <f>F8/42</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="H8" s="2">
         <v>8</v>
       </c>
       <c r="I8" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16326530612244897</v>
       </c>
       <c r="J8" s="8">
-        <f t="shared" si="3"/>
-        <v>0.19429024583663759</v>
+        <f t="shared" si="4"/>
+        <v>0.48572561459159402</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -831,30 +827,30 @@
         <v>8</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.4017094017094016E-2</v>
       </c>
       <c r="F9" s="2">
         <v>3</v>
       </c>
       <c r="G9" s="7">
-        <f>F9/42</f>
+        <f t="shared" si="0"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="H9" s="2">
         <v>3</v>
       </c>
       <c r="I9" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.1224489795918366E-2</v>
       </c>
       <c r="J9" s="8">
-        <f t="shared" si="3"/>
-        <v>0.42524654832347147</v>
+        <f t="shared" si="4"/>
+        <v>1.0631163708086786</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -868,30 +864,30 @@
         <v>8</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.4017094017094016E-2</v>
       </c>
       <c r="F10" s="2">
         <v>3</v>
       </c>
       <c r="G10" s="7">
-        <f>F10/42</f>
+        <f t="shared" si="0"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="H10" s="2">
         <v>3</v>
       </c>
       <c r="I10" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.1224489795918366E-2</v>
       </c>
       <c r="J10" s="8">
-        <f t="shared" si="3"/>
-        <v>0.42524654832347147</v>
+        <f t="shared" si="4"/>
+        <v>1.0631163708086786</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -905,30 +901,30 @@
         <v>8</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.4017094017094016E-2</v>
       </c>
       <c r="F11" s="2">
         <v>3</v>
       </c>
       <c r="G11" s="7">
-        <f>F11/42</f>
+        <f t="shared" si="0"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="H11" s="2">
         <v>3</v>
       </c>
       <c r="I11" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.1224489795918366E-2</v>
       </c>
       <c r="J11" s="8">
-        <f t="shared" si="3"/>
-        <v>0.42524654832347147</v>
+        <f t="shared" si="4"/>
+        <v>1.0631163708086786</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -942,30 +938,30 @@
         <v>8</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5470085470085472E-2</v>
       </c>
       <c r="F12" s="2">
         <v>4</v>
       </c>
       <c r="G12" s="7">
-        <f>F12/42</f>
+        <f t="shared" si="0"/>
         <v>9.5238095238095233E-2</v>
       </c>
       <c r="H12" s="2">
         <v>4</v>
       </c>
       <c r="I12" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.1632653061224483E-2</v>
       </c>
       <c r="J12" s="8">
-        <f t="shared" si="3"/>
-        <v>0.2899408284023669</v>
+        <f t="shared" si="4"/>
+        <v>0.72485207100591731</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -985,7 +981,7 @@
         <v>234</v>
       </c>
       <c r="E13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F13" s="2">
@@ -993,7 +989,7 @@
         <v>42</v>
       </c>
       <c r="G13" s="7">
-        <f>F13/42</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H13" s="2">
